--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Ifnb1-Ifnar1.xlsx
@@ -76,22 +76,22 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Ifnb1</t>
+  </si>
+  <si>
+    <t>Ifnar1</t>
+  </si>
+  <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Ifnb1</t>
-  </si>
-  <si>
-    <t>Ifnar1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
   </si>
   <si>
     <t>Neutrophils</t>
@@ -534,25 +534,25 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H2">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I2">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J2">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N2">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P2">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q2">
-        <v>3.031430695325555</v>
+        <v>0.891169126203889</v>
       </c>
       <c r="R2">
-        <v>27.28287625793</v>
+        <v>8.020522135835</v>
       </c>
       <c r="S2">
-        <v>0.09278698900371526</v>
+        <v>0.03759373223406948</v>
       </c>
       <c r="T2">
-        <v>0.09278698900371525</v>
+        <v>0.03759373223406948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,25 +596,25 @@
         <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H3">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I3">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J3">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>57.795224</v>
       </c>
       <c r="O3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P3">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q3">
-        <v>3.700634614411556</v>
+        <v>0.7625437637644444</v>
       </c>
       <c r="R3">
-        <v>33.305711529704</v>
+        <v>6.86289387388</v>
       </c>
       <c r="S3">
-        <v>0.1132701941046016</v>
+        <v>0.03216770557776417</v>
       </c>
       <c r="T3">
-        <v>0.1132701941046016</v>
+        <v>0.03216770557776417</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,25 +658,25 @@
         <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H4">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I4">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J4">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N4">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P4">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q4">
-        <v>6.686579727466222</v>
+        <v>1.852334893945556</v>
       </c>
       <c r="R4">
-        <v>60.179217547196</v>
+        <v>16.67101404551</v>
       </c>
       <c r="S4">
-        <v>0.2046649460274875</v>
+        <v>0.07814025414843732</v>
       </c>
       <c r="T4">
-        <v>0.2046649460274875</v>
+        <v>0.07814025414843734</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,25 +720,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H5">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I5">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J5">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N5">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P5">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q5">
-        <v>1.840091442340889</v>
+        <v>0.2469001190455555</v>
       </c>
       <c r="R5">
-        <v>16.560822981068</v>
+        <v>2.22210107141</v>
       </c>
       <c r="S5">
-        <v>0.0563221005479654</v>
+        <v>0.01041541576232176</v>
       </c>
       <c r="T5">
-        <v>0.0563221005479654</v>
+        <v>0.01041541576232176</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>26</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H6">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I6">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J6">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N6">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P6">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q6">
-        <v>6.958790042411334</v>
+        <v>1.404414887168333</v>
       </c>
       <c r="R6">
-        <v>62.629110381702</v>
+        <v>12.639733984515</v>
       </c>
       <c r="S6">
-        <v>0.212996845397134</v>
+        <v>0.0592448679619853</v>
       </c>
       <c r="T6">
-        <v>0.212996845397134</v>
+        <v>0.05924486796198531</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.1920903333333333</v>
+        <v>0.03958166666666667</v>
       </c>
       <c r="H7">
-        <v>0.576271</v>
+        <v>0.118745</v>
       </c>
       <c r="I7">
-        <v>0.9357995862333268</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="J7">
-        <v>0.9357995862333267</v>
+        <v>0.2870281964201545</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N7">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P7">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q7">
-        <v>8.355850422812777</v>
+        <v>1.646714692975</v>
       </c>
       <c r="R7">
-        <v>75.20265380531499</v>
+        <v>14.820432236775</v>
       </c>
       <c r="S7">
-        <v>0.2557585111524231</v>
+        <v>0.0694662207355764</v>
       </c>
       <c r="T7">
-        <v>0.255758511152423</v>
+        <v>0.0694662207355764</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -915,16 +915,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H8">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I8">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J8">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.78127666666667</v>
+        <v>22.51469433333333</v>
       </c>
       <c r="N8">
-        <v>47.34383</v>
+        <v>67.544083</v>
       </c>
       <c r="O8">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="P8">
-        <v>0.0991526287986414</v>
+        <v>0.1309757462958079</v>
       </c>
       <c r="Q8">
-        <v>0.2079709243388889</v>
+        <v>2.213644746853334</v>
       </c>
       <c r="R8">
-        <v>1.87173831905</v>
+        <v>19.92280272168</v>
       </c>
       <c r="S8">
-        <v>0.006365639794926142</v>
+        <v>0.09338201406173846</v>
       </c>
       <c r="T8">
-        <v>0.006365639794926142</v>
+        <v>0.09338201406173846</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,16 +977,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H9">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I9">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J9">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>57.795224</v>
       </c>
       <c r="O9">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177727</v>
       </c>
       <c r="P9">
-        <v>0.121041081627877</v>
+        <v>0.1120715873177728</v>
       </c>
       <c r="Q9">
-        <v>0.2538815756488889</v>
+        <v>1.894142141226667</v>
       </c>
       <c r="R9">
-        <v>2.28493418084</v>
+        <v>17.04727927104</v>
       </c>
       <c r="S9">
-        <v>0.007770887523275378</v>
+        <v>0.07990388174000858</v>
       </c>
       <c r="T9">
-        <v>0.007770887523275378</v>
+        <v>0.07990388174000859</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1039,16 +1039,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H10">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I10">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J10">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>34.80955866666667</v>
+        <v>46.79779933333333</v>
       </c>
       <c r="N10">
-        <v>104.428676</v>
+        <v>140.393398</v>
       </c>
       <c r="O10">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="P10">
-        <v>0.2187059590945978</v>
+        <v>0.272238947681833</v>
       </c>
       <c r="Q10">
-        <v>0.4587319672955556</v>
+        <v>4.601159630453333</v>
       </c>
       <c r="R10">
-        <v>4.12858770566</v>
+        <v>41.41043667408</v>
       </c>
       <c r="S10">
-        <v>0.0140410130671103</v>
+        <v>0.1940986935333957</v>
       </c>
       <c r="T10">
-        <v>0.0140410130671103</v>
+        <v>0.1940986935333957</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1101,16 +1101,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H11">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I11">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J11">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.579302666666665</v>
+        <v>6.237739333333333</v>
       </c>
       <c r="N11">
-        <v>28.737908</v>
+        <v>18.713218</v>
       </c>
       <c r="O11">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778873</v>
       </c>
       <c r="P11">
-        <v>0.06018607122350488</v>
+        <v>0.03628708221778874</v>
       </c>
       <c r="Q11">
-        <v>0.1262392436422222</v>
+        <v>0.6132945312533333</v>
       </c>
       <c r="R11">
-        <v>1.13615319278</v>
+        <v>5.519650781279999</v>
       </c>
       <c r="S11">
-        <v>0.003863970675539481</v>
+        <v>0.02587166645546697</v>
       </c>
       <c r="T11">
-        <v>0.003863970675539481</v>
+        <v>0.02587166645546698</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H12">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I12">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J12">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.226654</v>
+        <v>35.481449</v>
       </c>
       <c r="N12">
-        <v>108.679962</v>
+        <v>106.444347</v>
       </c>
       <c r="O12">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="P12">
-        <v>0.2276094673801518</v>
+        <v>0.2064078327526475</v>
       </c>
       <c r="Q12">
-        <v>0.4774069219633334</v>
+        <v>3.48853606568</v>
       </c>
       <c r="R12">
-        <v>4.29666229767</v>
+        <v>31.39682459112</v>
       </c>
       <c r="S12">
-        <v>0.01461262198301787</v>
+        <v>0.1471629647906622</v>
       </c>
       <c r="T12">
-        <v>0.01461262198301787</v>
+        <v>0.1471629647906622</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G13">
-        <v>0.01317833333333333</v>
+        <v>0.09832</v>
       </c>
       <c r="H13">
-        <v>0.039535</v>
+        <v>0.29496</v>
       </c>
       <c r="I13">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="J13">
-        <v>0.06420041376667328</v>
+        <v>0.7129718035798456</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>43.49958833333333</v>
+        <v>41.602965</v>
       </c>
       <c r="N13">
-        <v>130.498765</v>
+        <v>124.808895</v>
       </c>
       <c r="O13">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="P13">
-        <v>0.2733047918752272</v>
+        <v>0.2420188037341499</v>
       </c>
       <c r="Q13">
-        <v>0.5732520749194444</v>
+        <v>4.090403518800001</v>
       </c>
       <c r="R13">
-        <v>5.159268674274999</v>
+        <v>36.8136316692</v>
       </c>
       <c r="S13">
-        <v>0.01754628072280411</v>
+        <v>0.1725525829985735</v>
       </c>
       <c r="T13">
-        <v>0.01754628072280411</v>
+        <v>0.1725525829985735</v>
       </c>
     </row>
   </sheetData>
